--- a/document/テーブル定義.xlsx
+++ b/document/テーブル定義.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\root\yame\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480F5E11-248E-4B64-8B36-B626E09A32C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A3FFD5-F6C8-49AA-A640-8A568FFB1264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="824" xr2:uid="{7691247A-2F67-4A83-8ABC-BEB9A7A24CFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="824" activeTab="1" xr2:uid="{7691247A-2F67-4A83-8ABC-BEB9A7A24CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="10" r:id="rId1"/>
-    <sheet name="ユーザーUsers" sheetId="1" r:id="rId2"/>
-    <sheet name="樹種WoodSpecies" sheetId="12" r:id="rId3"/>
-    <sheet name="単位Unit" sheetId="11" r:id="rId4"/>
-    <sheet name="倉庫WareHouse" sheetId="3" r:id="rId5"/>
-    <sheet name="製材Item" sheetId="2" r:id="rId6"/>
-    <sheet name="入庫情報InStockInfo" sheetId="4" r:id="rId7"/>
-    <sheet name="入庫明細InStockDetail" sheetId="5" r:id="rId8"/>
-    <sheet name="出庫情報OutStockInfo" sheetId="8" r:id="rId9"/>
-    <sheet name="出庫明細OutStockDetail" sheetId="9" r:id="rId10"/>
-    <sheet name="棟情報BuildingInfo" sheetId="6" r:id="rId11"/>
-    <sheet name="棟情報明細BuildingInfoDetail" sheetId="7" r:id="rId12"/>
+    <sheet name="ユーザーusers" sheetId="1" r:id="rId2"/>
+    <sheet name="ユーザーカテゴリUserCateory" sheetId="13" r:id="rId3"/>
+    <sheet name="樹種WoodSpecies" sheetId="12" r:id="rId4"/>
+    <sheet name="単位Unit" sheetId="11" r:id="rId5"/>
+    <sheet name="倉庫Warehouse" sheetId="3" r:id="rId6"/>
+    <sheet name="製材Item" sheetId="2" r:id="rId7"/>
+    <sheet name="入庫情報InStockInfo" sheetId="4" r:id="rId8"/>
+    <sheet name="入庫明細InStockDetail" sheetId="5" r:id="rId9"/>
+    <sheet name="出庫情報OutStockInfo" sheetId="8" r:id="rId10"/>
+    <sheet name="出庫明細OutStockDetail" sheetId="9" r:id="rId11"/>
+    <sheet name="棟情報BuildingInfo" sheetId="6" r:id="rId12"/>
+    <sheet name="棟情報明細BuildingInfoDetail" sheetId="7" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="120">
   <si>
     <t>製材ID</t>
   </si>
@@ -153,17 +154,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>会社カテゴリ</t>
-    <rPh sb="0" eb="2">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>category</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>email</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -394,10 +384,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>User</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Item</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -619,6 +605,58 @@
   </si>
   <si>
     <t>Warehouse</t>
+  </si>
+  <si>
+    <t>users</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_category_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社カテゴリ名</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会社カテゴリID</t>
+    <rPh sb="0" eb="2">
+      <t>カイシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_category_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>foreignId</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーカテゴリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserCategory</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーカテゴリID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーカテゴリ名</t>
+    <rPh sb="8" eb="9">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -982,147 +1020,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E72B9E1-2C64-4CE0-814F-93A7BE76FBC7}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.75" customWidth="1"/>
+    <col min="6" max="6" width="49.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E1" t="str">
+        <f t="shared" ref="E1:E3" si="0">"php artisan make:migration create_" &amp; LOWER(B1) &amp; "_table --create=" &amp; B1</f>
+        <v>php artisan make:migration create_users_table --create=users</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"php artisan make:resource UsersResource"</f>
+        <v>php artisan make:resource UsersResource</v>
+      </c>
+      <c r="H1" t="str">
+        <f>"php artisan make:resource UsersCollection"</f>
+        <v>php artisan make:resource UsersCollection</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"php artisan make:migration create_" &amp; LOWER(B2) &amp; "_table --create=" &amp; B2</f>
+        <v>php artisan make:migration create_usercategory_table --create=UserCategory</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"php artisan code:models --table=" &amp; B2</f>
+        <v>php artisan code:models --table=UserCategory</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>php artisan make:migration create_item_table --create=Item</v>
+      </c>
+      <c r="F3" t="str">
+        <f>"php artisan code:models --table=" &amp; B3</f>
+        <v>php artisan code:models --table=Item</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"php artisan make:resource " &amp; B3 &amp; "Resource"</f>
+        <v>php artisan make:resource ItemResource</v>
+      </c>
+      <c r="H3" t="str">
+        <f>"php artisan make:resource " &amp; B3 &amp; "Collection"</f>
+        <v>php artisan make:resource ItemCollection</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" t="str">
+        <f>"php artisan make:migration create_" &amp; LOWER(B4) &amp; "_table --create=" &amp; B4</f>
+        <v>php artisan make:migration create_warehouse_table --create=Warehouse</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F12" si="1">"php artisan code:models --table=" &amp; B4</f>
+        <v>php artisan code:models --table=Warehouse</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" ref="G4:G11" si="2">"php artisan make:resource " &amp; B4 &amp; "Resource"</f>
+        <v>php artisan make:resource WarehouseResource</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H11" si="3">"php artisan make:resource " &amp; B4 &amp; "Collection"</f>
+        <v>php artisan make:resource WarehouseCollection</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
         <v>90</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ref="E5:E12" si="4">"php artisan make:migration create_" &amp; LOWER(B5) &amp; "_table --create=" &amp; B5</f>
+        <v>php artisan make:migration create_unit_table --create=Unit</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>php artisan code:models --table=Unit</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>php artisan make:resource UnitResource</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v>php artisan make:resource UnitCollection</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="4"/>
+        <v>php artisan make:migration create_woodspecies_table --create=WoodSpecies</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>php artisan code:models --table=WoodSpecies</v>
+      </c>
+      <c r="G6" t="str">
+        <f>"php artisan make:resource " &amp; B6 &amp; "Resource"</f>
+        <v>php artisan make:resource WoodSpeciesResource</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v>php artisan make:resource WoodSpeciesCollection</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="4"/>
+        <v>php artisan make:migration create_instockinfo_table --create=InStockInfo</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>php artisan code:models --table=InStockInfo</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>php artisan make:resource InStockInfoResource</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>php artisan make:resource InStockInfoCollection</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="4"/>
+        <v>php artisan make:migration create_instockdetail_table --create=InStockDetail</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>php artisan code:models --table=InStockDetail</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="4"/>
+        <v>php artisan make:migration create_outstockinfo_table --create=OutStockInfo</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>php artisan code:models --table=OutStockInfo</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>php artisan make:resource OutStockInfoResource</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v>php artisan make:resource OutStockInfoCollection</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
         <v>76</v>
       </c>
-      <c r="E1" t="str">
-        <f t="shared" ref="E1:E2" si="0">"php artisan make:migration create_" &amp; LOWER(B1) &amp; "_table --create=" &amp; B1</f>
-        <v>php artisan make:migration create_user_table --create=User</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" t="str">
-        <f t="shared" si="0"/>
-        <v>php artisan make:migration create_item_table --create=Item</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" t="str">
-        <f>"php artisan make:migration create_" &amp; LOWER(B3) &amp; "_table --create=" &amp; B3</f>
-        <v>php artisan make:migration create_warehouse_table --create=Warehouse</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E10" t="str">
+        <f t="shared" si="4"/>
+        <v>php artisan make:migration create_outstockdetail_table --create=OutStockDetail</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>php artisan code:models --table=OutStockDetail</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="4"/>
+        <v>php artisan make:migration create_buildinginfo_table --create=BuildingInfo</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>php artisan code:models --table=BuildingInfo</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>php artisan make:resource BuildingInfoResource</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="3"/>
+        <v>php artisan make:resource BuildingInfoCollection</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" t="s">
         <v>86</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" ref="E4:E11" si="1">"php artisan make:migration create_" &amp; LOWER(B4) &amp; "_table --create=" &amp; B4</f>
-        <v>php artisan make:migration create_unit_table --create=Unit</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" t="str">
+      <c r="E12" t="str">
+        <f t="shared" si="4"/>
+        <v>php artisan make:migration create_buildinginfodetail_table --create=BuildingInfoDetail</v>
+      </c>
+      <c r="F12" t="str">
         <f t="shared" si="1"/>
-        <v>php artisan make:migration create_woodspecies_table --create=WoodSpecies</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" t="str">
-        <f t="shared" si="1"/>
-        <v>php artisan make:migration create_instockinfo_table --create=InStockInfo</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" t="str">
-        <f t="shared" si="1"/>
-        <v>php artisan make:migration create_instockdetail_table --create=InStockDetail</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" t="str">
-        <f t="shared" si="1"/>
-        <v>php artisan make:migration create_outstockinfo_table --create=OutStockInfo</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="1"/>
-        <v>php artisan make:migration create_outstockdetail_table --create=OutStockDetail</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" t="str">
-        <f t="shared" si="1"/>
-        <v>php artisan make:migration create_buildinginfo_table --create=BuildingInfo</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" t="str">
-        <f t="shared" si="1"/>
-        <v>php artisan make:migration create_buildinginfodetail_table --create=BuildingInfoDetail</v>
+        <v>php artisan code:models --table=BuildingInfoDetail</v>
       </c>
     </row>
   </sheetData>
@@ -1132,6 +1293,151 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2412BF-F40F-4984-BED3-4FA17FDB973D}">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; IF(F3&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
+        <v>$table-&gt;unsignedInteger("builder_user_id")-&gt;nullable()-&gt;comment("工務店ユーザーID");</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="str">
+        <f>"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; IF(F4&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
+        <v>$table-&gt;string("builder_user_name")-&gt;nullable()-&gt;comment("工務店名");</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" ref="G5:G8" si="0">"$table-&gt;" &amp; C5 &amp; "(""" &amp; B5 &amp; """" &amp;  IF(D5&lt;&gt;"","," &amp; D5,"") &amp; ")"  &amp; IF(E5&lt;&gt;"","-&gt;default(" &amp; E5 &amp; ")","") &amp; IF(F5&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A5 &amp; """)" &amp; ";"</f>
+        <v>$table-&gt;date("export_date")-&gt;comment("出庫日");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>255</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;string("reason",255)-&gt;comment("理由");</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;unsignedInteger("create_user_id")-&gt;comment("登録者");</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;unsignedInteger("update_user_id")-&gt;comment("変更者");</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B6BE1F-DF7C-45CA-BDD7-9950D32A9D76}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1173,13 +1479,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -1188,13 +1494,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G5" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -1203,13 +1509,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -1223,7 +1529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6367F9-BEE6-4908-BF0F-857525D7CA3C}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -1259,15 +1565,15 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -1282,13 +1588,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G8" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -1297,10 +1603,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1315,13 +1621,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -1330,13 +1636,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -1345,13 +1651,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -1365,7 +1671,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A6DDF82-6259-44AA-80C9-3B7C3007713E}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1408,13 +1714,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -1423,13 +1729,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G5" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -1438,13 +1744,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -1460,13 +1766,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420D7AA8-9A1B-4C09-841D-2A5E76909292}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -1485,10 +1796,10 @@
         <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -1513,30 +1824,45 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>115</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H5" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; IF(F4&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
-        <v>$table-&gt;string("category")-&gt;comment("会社カテゴリ");</v>
+        <f t="shared" ref="H4:H6" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; IF(F4&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
+        <v>$table-&gt;foreignId("user_category_id")-&gt;comment("会社カテゴリID");</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
       </c>
       <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;string("user_category_name")-&gt;comment("会社カテゴリ名");</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="str">
         <f t="shared" si="0"/>
         <v>$table-&gt;string("email")-&gt;comment("email");</v>
       </c>
@@ -1548,14 +1874,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787E2A66-6EA5-4477-831B-16B897F4DF4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881A9A3F-3086-41A3-B18D-76F7EA91CABB}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -1579,22 +1910,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="G2" t="str">
         <f>"$table-&gt;" &amp; C2 &amp; "(""" &amp; B2 &amp; """" &amp;  IF(D2&lt;&gt;"","," &amp; D2,"") &amp; ")"  &amp; IF(E2&lt;&gt;"","-&gt;default(" &amp; E2 &amp; ")","") &amp; IF(F2&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A2 &amp; """)" &amp; ";"</f>
-        <v>$table-&gt;unsignedInteger("id")-&gt;comment("樹種ID");</v>
+        <v>$table-&gt;id("id")-&gt;comment("ユーザーカテゴリID");</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -1604,7 +1935,7 @@
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; IF(F3&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
-        <v>$table-&gt;string("name")-&gt;comment("樹種名");</v>
+        <v>$table-&gt;string("name")-&gt;comment("ユーザーカテゴリ名");</v>
       </c>
     </row>
   </sheetData>
@@ -1615,11 +1946,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0476F53B-570E-4089-8DD7-FCFB997BC5EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{787E2A66-6EA5-4477-831B-16B897F4DF4F}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1646,22 +1977,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G2" t="str">
         <f>"$table-&gt;" &amp; C2 &amp; "(""" &amp; B2 &amp; """" &amp;  IF(D2&lt;&gt;"","," &amp; D2,"") &amp; ")"  &amp; IF(E2&lt;&gt;"","-&gt;default(" &amp; E2 &amp; ")","") &amp; IF(F2&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A2 &amp; """)" &amp; ";"</f>
-        <v>$table-&gt;unsignedInteger("id")-&gt;comment("単位ID");</v>
+        <v>$table-&gt;unsignedInteger("id")-&gt;comment("樹種ID");</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -1671,7 +2002,7 @@
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; IF(F3&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
-        <v>$table-&gt;string("name")-&gt;comment("単位名");</v>
+        <v>$table-&gt;string("name")-&gt;comment("樹種名");</v>
       </c>
     </row>
   </sheetData>
@@ -1682,11 +2013,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9982D61F-1CF6-41EA-AB43-E48A84B225BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0476F53B-570E-4089-8DD7-FCFB997BC5EC}">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1713,18 +2044,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>57</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"$table-&gt;" &amp; C2 &amp; "(""" &amp; B2 &amp; """" &amp;  IF(D2&lt;&gt;"","," &amp; D2,"") &amp; ")"  &amp; IF(E2&lt;&gt;"","-&gt;default(" &amp; E2 &amp; ")","") &amp; IF(F2&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A2 &amp; """)" &amp; ";"</f>
+        <v>$table-&gt;unsignedInteger("id")-&gt;comment("単位ID");</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -1733,8 +2068,8 @@
         <v>14</v>
       </c>
       <c r="G3" t="str">
-        <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
-        <v>$table-&gt;string("name")-&gt;comment("倉庫名");</v>
+        <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; IF(F3&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
+        <v>$table-&gt;string("name")-&gt;comment("単位名");</v>
       </c>
     </row>
   </sheetData>
@@ -1745,11 +2080,74 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9982D61F-1CF6-41EA-AB43-E48A84B225BE}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="str">
+        <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
+        <v>$table-&gt;string("name")-&gt;comment("倉庫名");</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0FC3F7-0636-4693-B8C1-41071F85BFB2}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1782,7 +2180,7 @@
         <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -1798,10 +2196,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H3" t="str">
-        <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; IF(G3&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
+        <f t="shared" ref="H3:H15" si="0">"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; IF(G3&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
         <v>$table-&gt;unsignedInteger("length")-&gt;comment("長さ");</v>
       </c>
     </row>
@@ -1813,10 +2211,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" t="str">
-        <f>"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; IF(G4&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
+        <f t="shared" si="0"/>
         <v>$table-&gt;unsignedInteger("width")-&gt;comment("幅");</v>
       </c>
     </row>
@@ -1828,10 +2226,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5" t="str">
-        <f>"$table-&gt;" &amp; C5 &amp; "(""" &amp; B5 &amp; """" &amp;  IF(D5&lt;&gt;"","," &amp; D5,"") &amp; ")"  &amp; IF(E5&lt;&gt;"","-&gt;default(" &amp; E5 &amp; ")","") &amp; IF(G5&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A5 &amp; """)" &amp; ";"</f>
+        <f t="shared" si="0"/>
         <v>$table-&gt;unsignedInteger("thickness")-&gt;comment("厚み");</v>
       </c>
     </row>
@@ -1849,31 +2247,31 @@
         <v>100</v>
       </c>
       <c r="H6" t="str">
-        <f>"$table-&gt;" &amp; C6 &amp; "(""" &amp; B6 &amp; """" &amp;  IF(D6&lt;&gt;"","," &amp; D6,"") &amp; ")"  &amp; IF(E6&lt;&gt;"","-&gt;default(" &amp; E6 &amp; ")","") &amp; IF(G6&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A6 &amp; """)" &amp; ";"</f>
+        <f t="shared" si="0"/>
         <v>$table-&gt;string("raw_wood_size",100)-&gt;comment("原木サイズ");</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H7" t="str">
-        <f>"$table-&gt;" &amp; C7 &amp; "(""" &amp; B7 &amp; """" &amp;  IF(D7&lt;&gt;"","," &amp; D7,"") &amp; ")"  &amp; IF(E7&lt;&gt;"","-&gt;default(" &amp; E7 &amp; ")","") &amp; IF(G7&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A7 &amp; """)" &amp; ";"</f>
+        <f t="shared" si="0"/>
         <v>$table-&gt;foreignId("warehouse_id")-&gt;comment("倉庫ID");</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
         <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1882,7 +2280,7 @@
         <v>50</v>
       </c>
       <c r="H8" t="str">
-        <f>"$table-&gt;" &amp; C8 &amp; "(""" &amp; B8 &amp; """" &amp;  IF(D8&lt;&gt;"","," &amp; D8,"") &amp; ")"  &amp; IF(E8&lt;&gt;"","-&gt;default(" &amp; E8 &amp; ")","") &amp; IF(G8&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A8 &amp; """)" &amp; ";"</f>
+        <f t="shared" si="0"/>
         <v>$table-&gt;string("warehouse_name",50)-&gt;comment("倉庫名");</v>
       </c>
     </row>
@@ -1900,7 +2298,7 @@
         <v>255</v>
       </c>
       <c r="H9" t="str">
-        <f>"$table-&gt;" &amp; C9 &amp; "(""" &amp; B9 &amp; """" &amp;  IF(D9&lt;&gt;"","," &amp; D9,"") &amp; ")"  &amp; IF(E9&lt;&gt;"","-&gt;default(" &amp; E9 &amp; ")","") &amp; IF(G9&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A9 &amp; """)" &amp; ";"</f>
+        <f t="shared" si="0"/>
         <v>$table-&gt;string("memo",255)-&gt;comment("摘要");</v>
       </c>
     </row>
@@ -1912,49 +2310,49 @@
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H10" t="str">
-        <f>"$table-&gt;" &amp; C10 &amp; "(""" &amp; B10 &amp; """" &amp;  IF(D10&lt;&gt;"","," &amp; D10,"") &amp; ")"  &amp; IF(E10&lt;&gt;"","-&gt;default(" &amp; E10 &amp; ")","") &amp; IF(G10&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A10 &amp; """)" &amp; ";"</f>
+        <f t="shared" si="0"/>
         <v>$table-&gt;unsignedInteger("quantity")-&gt;comment("数量");</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H11" t="str">
-        <f>"$table-&gt;" &amp; C11 &amp; "(""" &amp; B11 &amp; """" &amp;  IF(D11&lt;&gt;"","," &amp; D11,"") &amp; ")"  &amp; IF(E11&lt;&gt;"","-&gt;default(" &amp; E11 &amp; ")","") &amp; IF(G11&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A11 &amp; """)" &amp; ";"</f>
+        <f t="shared" si="0"/>
         <v>$table-&gt;unsignedInteger("essential_quantity")-&gt;comment("基準数量");</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" t="s">
         <v>60</v>
       </c>
-      <c r="B12" t="s">
-        <v>62</v>
-      </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H12" t="str">
-        <f>"$table-&gt;" &amp; C12 &amp; "(""" &amp; B12 &amp; """" &amp;  IF(D12&lt;&gt;"","," &amp; D12,"") &amp; ")"  &amp; IF(E12&lt;&gt;"","-&gt;default(" &amp; E12 &amp; ")","") &amp; IF(G12&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A12 &amp; """)" &amp; ";"</f>
+        <f t="shared" si="0"/>
         <v>$table-&gt;foreignId("unit_id")-&gt;comment("単位ID");</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
         <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>63</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1963,31 +2361,31 @@
         <v>10</v>
       </c>
       <c r="H13" t="str">
-        <f>"$table-&gt;" &amp; C13 &amp; "(""" &amp; B13 &amp; """" &amp;  IF(D13&lt;&gt;"","," &amp; D13,"") &amp; ")"  &amp; IF(E13&lt;&gt;"","-&gt;default(" &amp; E13 &amp; ")","") &amp; IF(G13&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A13 &amp; """)" &amp; ";"</f>
+        <f t="shared" si="0"/>
         <v>$table-&gt;string("unit_name",10)-&gt;comment("単位名");</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H14" t="str">
-        <f>"$table-&gt;" &amp; C14 &amp; "(""" &amp; B14 &amp; """" &amp;  IF(D14&lt;&gt;"","," &amp; D14,"") &amp; ")"  &amp; IF(E14&lt;&gt;"","-&gt;default(" &amp; E14 &amp; ")","") &amp; IF(G14&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A14 &amp; """)" &amp; ";"</f>
+        <f t="shared" si="0"/>
         <v>$table-&gt;foreignId("wood_species_id")-&gt;comment("樹種ID");</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1996,7 +2394,7 @@
         <v>100</v>
       </c>
       <c r="H15" t="str">
-        <f>"$table-&gt;" &amp; C15 &amp; "(""" &amp; B15 &amp; """" &amp;  IF(D15&lt;&gt;"","," &amp; D15,"") &amp; ")"  &amp; IF(E15&lt;&gt;"","-&gt;default(" &amp; E15 &amp; ")","") &amp; IF(G15&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A15 &amp; """)" &amp; ";"</f>
+        <f t="shared" si="0"/>
         <v>$table-&gt;string("wood_species_name",100)-&gt;comment("樹種名");</v>
       </c>
     </row>
@@ -2007,7 +2405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762820DA-F05F-428C-A9F0-7FB19A4112ED}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -2043,18 +2441,18 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -2063,10 +2461,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -2078,13 +2476,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -2093,10 +2491,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -2111,13 +2509,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -2126,13 +2524,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -2146,7 +2544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{861721BA-A070-4D93-BC8F-50866ABFFF34}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -2187,13 +2585,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -2202,13 +2600,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G5" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -2217,162 +2615,17 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
         <v>$table-&gt;unsignedInteger("item_quantity")-&gt;comment("使用製材数");</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2412BF-F40F-4984-BED3-4FA17FDB973D}">
-  <dimension ref="A1:G8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G3" t="str">
-        <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; IF(F3&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
-        <v>$table-&gt;unsignedInteger("builder_user_id")-&gt;nullable()-&gt;comment("工務店ユーザーID");</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" t="str">
-        <f>"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; IF(F4&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
-        <v>$table-&gt;string("builder_user_name")-&gt;nullable()-&gt;comment("工務店名");</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" ref="G5:G8" si="0">"$table-&gt;" &amp; C5 &amp; "(""" &amp; B5 &amp; """" &amp;  IF(D5&lt;&gt;"","," &amp; D5,"") &amp; ")"  &amp; IF(E5&lt;&gt;"","-&gt;default(" &amp; E5 &amp; ")","") &amp; IF(F5&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A5 &amp; """)" &amp; ";"</f>
-        <v>$table-&gt;date("export_date")-&gt;comment("出庫日");</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>255</v>
-      </c>
-      <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>$table-&gt;string("reason",255)-&gt;comment("理由");</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>$table-&gt;unsignedInteger("create_user_id")-&gt;comment("登録者");</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="0"/>
-        <v>$table-&gt;unsignedInteger("update_user_id")-&gt;comment("変更者");</v>
       </c>
     </row>
   </sheetData>

--- a/document/テーブル定義.xlsx
+++ b/document/テーブル定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\root\yame\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A3FFD5-F6C8-49AA-A640-8A568FFB1264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327276CE-ABE9-42E7-809A-902106E50B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="824" activeTab="1" xr2:uid="{7691247A-2F67-4A83-8ABC-BEB9A7A24CFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="824" xr2:uid="{7691247A-2F67-4A83-8ABC-BEB9A7A24CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="10" r:id="rId1"/>
@@ -607,10 +607,6 @@
     <t>Warehouse</t>
   </si>
   <si>
-    <t>users</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>user_category_name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -656,6 +652,10 @@
     <rPh sb="8" eb="9">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1020,10 +1020,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E72B9E1-2C64-4CE0-814F-93A7BE76FBC7}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1031,35 +1031,40 @@
     <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.75" customWidth="1"/>
     <col min="6" max="6" width="49.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.75" customWidth="1"/>
+    <col min="8" max="8" width="48.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>87</v>
       </c>
       <c r="B1" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E1" t="str">
-        <f t="shared" ref="E1:E3" si="0">"php artisan make:migration create_" &amp; LOWER(B1) &amp; "_table --create=" &amp; B1</f>
-        <v>php artisan make:migration create_users_table --create=users</v>
+        <f>"php artisan make:migration create_" &amp; LOWER(B1) &amp; "_table --create=users"</f>
+        <v>php artisan make:migration create_user_table --create=users</v>
       </c>
       <c r="G1" t="str">
+        <f>"php artisan make:controller " &amp; B1 &amp; "Controller --api"</f>
+        <v>php artisan make:controller UserController --api</v>
+      </c>
+      <c r="H1" t="str">
         <f>"php artisan make:resource UsersResource"</f>
         <v>php artisan make:resource UsersResource</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <f>"php artisan make:resource UsersCollection"</f>
         <v>php artisan make:resource UsersCollection</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" t="s">
         <v>116</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
       </c>
       <c r="E2" t="str">
         <f>"php artisan make:migration create_" &amp; LOWER(B2) &amp; "_table --create=" &amp; B2</f>
@@ -1070,7 +1075,7 @@
         <v>php artisan code:models --table=UserCategory</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -1078,23 +1083,23 @@
         <v>74</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E1:E3" si="0">"php artisan make:migration create_" &amp; LOWER(B3) &amp; "_table --create=" &amp; B3</f>
         <v>php artisan make:migration create_item_table --create=Item</v>
       </c>
       <c r="F3" t="str">
         <f>"php artisan code:models --table=" &amp; B3</f>
         <v>php artisan code:models --table=Item</v>
       </c>
-      <c r="G3" t="str">
+      <c r="H3" t="str">
         <f>"php artisan make:resource " &amp; B3 &amp; "Resource"</f>
         <v>php artisan make:resource ItemResource</v>
       </c>
-      <c r="H3" t="str">
+      <c r="I3" t="str">
         <f>"php artisan make:resource " &amp; B3 &amp; "Collection"</f>
         <v>php artisan make:resource ItemCollection</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>89</v>
       </c>
@@ -1109,16 +1114,16 @@
         <f t="shared" ref="F4:F12" si="1">"php artisan code:models --table=" &amp; B4</f>
         <v>php artisan code:models --table=Warehouse</v>
       </c>
-      <c r="G4" t="str">
-        <f t="shared" ref="G4:G11" si="2">"php artisan make:resource " &amp; B4 &amp; "Resource"</f>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H11" si="2">"php artisan make:resource " &amp; B4 &amp; "Resource"</f>
         <v>php artisan make:resource WarehouseResource</v>
       </c>
-      <c r="H4" t="str">
-        <f t="shared" ref="H4:H11" si="3">"php artisan make:resource " &amp; B4 &amp; "Collection"</f>
+      <c r="I4" t="str">
+        <f t="shared" ref="I4:I11" si="3">"php artisan make:resource " &amp; B4 &amp; "Collection"</f>
         <v>php artisan make:resource WarehouseCollection</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>90</v>
       </c>
@@ -1133,16 +1138,16 @@
         <f t="shared" si="1"/>
         <v>php artisan code:models --table=Unit</v>
       </c>
-      <c r="G5" t="str">
+      <c r="H5" t="str">
         <f t="shared" si="2"/>
         <v>php artisan make:resource UnitResource</v>
       </c>
-      <c r="H5" t="str">
+      <c r="I5" t="str">
         <f t="shared" si="3"/>
         <v>php artisan make:resource UnitCollection</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -1157,16 +1162,16 @@
         <f t="shared" si="1"/>
         <v>php artisan code:models --table=WoodSpecies</v>
       </c>
-      <c r="G6" t="str">
+      <c r="H6" t="str">
         <f>"php artisan make:resource " &amp; B6 &amp; "Resource"</f>
         <v>php artisan make:resource WoodSpeciesResource</v>
       </c>
-      <c r="H6" t="str">
+      <c r="I6" t="str">
         <f t="shared" si="3"/>
         <v>php artisan make:resource WoodSpeciesCollection</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>92</v>
       </c>
@@ -1181,16 +1186,16 @@
         <f t="shared" si="1"/>
         <v>php artisan code:models --table=InStockInfo</v>
       </c>
-      <c r="G7" t="str">
+      <c r="H7" t="str">
         <f t="shared" si="2"/>
         <v>php artisan make:resource InStockInfoResource</v>
       </c>
-      <c r="H7" t="str">
+      <c r="I7" t="str">
         <f t="shared" si="3"/>
         <v>php artisan make:resource InStockInfoCollection</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -1206,7 +1211,7 @@
         <v>php artisan code:models --table=InStockDetail</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>96</v>
       </c>
@@ -1221,16 +1226,16 @@
         <f t="shared" si="1"/>
         <v>php artisan code:models --table=OutStockInfo</v>
       </c>
-      <c r="G9" t="str">
+      <c r="H9" t="str">
         <f t="shared" si="2"/>
         <v>php artisan make:resource OutStockInfoResource</v>
       </c>
-      <c r="H9" t="str">
+      <c r="I9" t="str">
         <f t="shared" si="3"/>
         <v>php artisan make:resource OutStockInfoCollection</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -1246,7 +1251,7 @@
         <v>php artisan code:models --table=OutStockDetail</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>98</v>
       </c>
@@ -1261,16 +1266,16 @@
         <f t="shared" si="1"/>
         <v>php artisan code:models --table=BuildingInfo</v>
       </c>
-      <c r="G11" t="str">
+      <c r="H11" t="str">
         <f t="shared" si="2"/>
         <v>php artisan make:resource BuildingInfoResource</v>
       </c>
-      <c r="H11" t="str">
+      <c r="I11" t="str">
         <f t="shared" si="3"/>
         <v>php artisan make:resource BuildingInfoCollection</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>99</v>
       </c>
@@ -1768,7 +1773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420D7AA8-9A1B-4C09-841D-2A5E76909292}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1824,13 +1829,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" t="s">
         <v>113</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>114</v>
-      </c>
-      <c r="C4" t="s">
-        <v>115</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H6" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; IF(F4&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -1839,10 +1844,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1910,7 +1915,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
@@ -1925,7 +1930,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>

--- a/document/テーブル定義.xlsx
+++ b/document/テーブル定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\root\yame\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327276CE-ABE9-42E7-809A-902106E50B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5581B1-554A-470E-98D2-AFEF9F6D3170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="824" xr2:uid="{7691247A-2F67-4A83-8ABC-BEB9A7A24CFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="824" firstSheet="1" activeTab="6" xr2:uid="{7691247A-2F67-4A83-8ABC-BEB9A7A24CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="10" r:id="rId1"/>
@@ -70,18 +70,6 @@
     <t>数量</t>
   </si>
   <si>
-    <t>length</t>
-  </si>
-  <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>thickness</t>
-  </si>
-  <si>
-    <t>raw_wood_size</t>
-  </si>
-  <si>
     <t>memo</t>
   </si>
   <si>
@@ -656,6 +644,22 @@
   </si>
   <si>
     <t>User</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>width</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>thickness</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>raw_wood_size</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1022,12 +1026,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E72B9E1-2C64-4CE0-814F-93A7BE76FBC7}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="72.75" customWidth="1"/>
     <col min="6" max="6" width="49.75" bestFit="1" customWidth="1"/>
@@ -1037,10 +1042,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E1" t="str">
         <f>"php artisan make:migration create_" &amp; LOWER(B1) &amp; "_table --create=users"</f>
@@ -1061,10 +1066,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E2" t="str">
         <f>"php artisan make:migration create_" &amp; LOWER(B2) &amp; "_table --create=" &amp; B2</f>
@@ -1074,22 +1079,30 @@
         <f>"php artisan code:models --table=" &amp; B2</f>
         <v>php artisan code:models --table=UserCategory</v>
       </c>
+      <c r="G2" t="str">
+        <f t="shared" ref="G2:G11" si="0">"php artisan make:controller " &amp; B2 &amp; "Controller --api"</f>
+        <v>php artisan make:controller UserCategoryController --api</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E1:E3" si="0">"php artisan make:migration create_" &amp; LOWER(B3) &amp; "_table --create=" &amp; B3</f>
+        <f t="shared" ref="E3" si="1">"php artisan make:migration create_" &amp; LOWER(B3) &amp; "_table --create=" &amp; B3</f>
         <v>php artisan make:migration create_item_table --create=Item</v>
       </c>
       <c r="F3" t="str">
         <f>"php artisan code:models --table=" &amp; B3</f>
         <v>php artisan code:models --table=Item</v>
       </c>
+      <c r="G3" t="str">
+        <f t="shared" si="0"/>
+        <v>php artisan make:controller ItemController --api</v>
+      </c>
       <c r="H3" t="str">
         <f>"php artisan make:resource " &amp; B3 &amp; "Resource"</f>
         <v>php artisan make:resource ItemResource</v>
@@ -1101,193 +1114,217 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E4" t="str">
         <f>"php artisan make:migration create_" &amp; LOWER(B4) &amp; "_table --create=" &amp; B4</f>
         <v>php artisan make:migration create_warehouse_table --create=Warehouse</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F12" si="1">"php artisan code:models --table=" &amp; B4</f>
+        <f t="shared" ref="F4:F12" si="2">"php artisan code:models --table=" &amp; B4</f>
         <v>php artisan code:models --table=Warehouse</v>
       </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>php artisan make:controller WarehouseController --api</v>
+      </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H11" si="2">"php artisan make:resource " &amp; B4 &amp; "Resource"</f>
+        <f t="shared" ref="H4:H11" si="3">"php artisan make:resource " &amp; B4 &amp; "Resource"</f>
         <v>php artisan make:resource WarehouseResource</v>
       </c>
       <c r="I4" t="str">
-        <f t="shared" ref="I4:I11" si="3">"php artisan make:resource " &amp; B4 &amp; "Collection"</f>
+        <f t="shared" ref="I4:I11" si="4">"php artisan make:resource " &amp; B4 &amp; "Collection"</f>
         <v>php artisan make:resource WarehouseCollection</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" ref="E5:E12" si="4">"php artisan make:migration create_" &amp; LOWER(B5) &amp; "_table --create=" &amp; B5</f>
+        <f t="shared" ref="E5:E12" si="5">"php artisan make:migration create_" &amp; LOWER(B5) &amp; "_table --create=" &amp; B5</f>
         <v>php artisan make:migration create_unit_table --create=Unit</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>php artisan code:models --table=Unit</v>
       </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>php artisan make:controller UnitController --api</v>
+      </c>
       <c r="H5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>php artisan make:resource UnitResource</v>
       </c>
       <c r="I5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>php artisan make:resource UnitCollection</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>php artisan make:migration create_woodspecies_table --create=WoodSpecies</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>php artisan code:models --table=WoodSpecies</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>php artisan make:controller WoodSpeciesController --api</v>
       </c>
       <c r="H6" t="str">
         <f>"php artisan make:resource " &amp; B6 &amp; "Resource"</f>
         <v>php artisan make:resource WoodSpeciesResource</v>
       </c>
       <c r="I6" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>php artisan make:resource WoodSpeciesCollection</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E7" t="str">
+        <f t="shared" si="5"/>
+        <v>php artisan make:migration create_instockinfo_table --create=InStockInfo</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="2"/>
+        <v>php artisan code:models --table=InStockInfo</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>php artisan make:controller InStockInfoController --api</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>php artisan make:resource InStockInfoResource</v>
+      </c>
+      <c r="I7" t="str">
         <f t="shared" si="4"/>
-        <v>php artisan make:migration create_instockinfo_table --create=InStockInfo</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="1"/>
-        <v>php artisan code:models --table=InStockInfo</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="2"/>
-        <v>php artisan make:resource InStockInfoResource</v>
-      </c>
-      <c r="I7" t="str">
-        <f t="shared" si="3"/>
         <v>php artisan make:resource InStockInfoCollection</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>php artisan make:migration create_instockdetail_table --create=InStockDetail</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>php artisan code:models --table=InStockDetail</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E9" t="str">
+        <f t="shared" si="5"/>
+        <v>php artisan make:migration create_outstockinfo_table --create=OutStockInfo</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="2"/>
+        <v>php artisan code:models --table=OutStockInfo</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>php artisan make:controller OutStockInfoController --api</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v>php artisan make:resource OutStockInfoResource</v>
+      </c>
+      <c r="I9" t="str">
         <f t="shared" si="4"/>
-        <v>php artisan make:migration create_outstockinfo_table --create=OutStockInfo</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>php artisan code:models --table=OutStockInfo</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="2"/>
-        <v>php artisan make:resource OutStockInfoResource</v>
-      </c>
-      <c r="I9" t="str">
-        <f t="shared" si="3"/>
         <v>php artisan make:resource OutStockInfoCollection</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>php artisan make:migration create_outstockdetail_table --create=OutStockDetail</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>php artisan code:models --table=OutStockDetail</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E11" t="str">
+        <f t="shared" si="5"/>
+        <v>php artisan make:migration create_buildinginfo_table --create=BuildingInfo</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="2"/>
+        <v>php artisan code:models --table=BuildingInfo</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>php artisan make:controller BuildingInfoController --api</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="3"/>
+        <v>php artisan make:resource BuildingInfoResource</v>
+      </c>
+      <c r="I11" t="str">
         <f t="shared" si="4"/>
-        <v>php artisan make:migration create_buildinginfo_table --create=BuildingInfo</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>php artisan code:models --table=BuildingInfo</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="2"/>
-        <v>php artisan make:resource BuildingInfoResource</v>
-      </c>
-      <c r="I11" t="str">
-        <f t="shared" si="3"/>
         <v>php artisan make:resource BuildingInfoCollection</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>php artisan make:migration create_buildinginfodetail_table --create=BuildingInfoDetail</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>php artisan code:models --table=BuildingInfoDetail</v>
       </c>
     </row>
@@ -1302,7 +1339,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G8"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1313,41 +1350,41 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; IF(F3&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -1356,16 +1393,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G4" t="str">
         <f>"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; IF(F4&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -1374,13 +1411,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ref="G5:G8" si="0">"$table-&gt;" &amp; C5 &amp; "(""" &amp; B5 &amp; """" &amp;  IF(D5&lt;&gt;"","," &amp; D5,"") &amp; ")"  &amp; IF(E5&lt;&gt;"","-&gt;default(" &amp; E5 &amp; ")","") &amp; IF(F5&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A5 &amp; """)" &amp; ";"</f>
@@ -1389,13 +1426,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>255</v>
@@ -1407,13 +1444,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -1422,13 +1459,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -1447,7 +1484,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G5"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1459,38 +1496,38 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -1499,13 +1536,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G5" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -1514,13 +1551,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -1539,49 +1576,50 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G8"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
-        <v>47</v>
-      </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>255</v>
@@ -1593,13 +1631,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G8" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -1608,13 +1646,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -1626,13 +1664,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
@@ -1641,13 +1679,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -1656,13 +1694,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -1694,38 +1732,38 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -1734,13 +1772,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G5" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -1749,13 +1787,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -1774,7 +1812,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1786,41 +1824,41 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; IF(F3&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -1829,13 +1867,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H6" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; IF(F4&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -1844,13 +1882,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -1859,13 +1897,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -1883,7 +1921,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1895,33 +1933,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G2" t="str">
         <f>"$table-&gt;" &amp; C2 &amp; "(""" &amp; B2 &amp; """" &amp;  IF(D2&lt;&gt;"","," &amp; D2,"") &amp; ")"  &amp; IF(E2&lt;&gt;"","-&gt;default(" &amp; E2 &amp; ")","") &amp; IF(F2&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A2 &amp; """)" &amp; ";"</f>
@@ -1930,13 +1968,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; IF(F3&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -1955,40 +1993,40 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:G3"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G2" t="str">
         <f>"$table-&gt;" &amp; C2 &amp; "(""" &amp; B2 &amp; """" &amp;  IF(D2&lt;&gt;"","," &amp; D2,"") &amp; ")"  &amp; IF(E2&lt;&gt;"","-&gt;default(" &amp; E2 &amp; ")","") &amp; IF(F2&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A2 &amp; """)" &amp; ";"</f>
@@ -1997,13 +2035,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; IF(F3&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -2029,33 +2067,33 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G2" t="str">
         <f>"$table-&gt;" &amp; C2 &amp; "(""" &amp; B2 &amp; """" &amp;  IF(D2&lt;&gt;"","," &amp; D2,"") &amp; ")"  &amp; IF(E2&lt;&gt;"","-&gt;default(" &amp; E2 &amp; ")","") &amp; IF(F2&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A2 &amp; """)" &amp; ";"</f>
@@ -2064,13 +2102,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; IF(F3&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -2096,44 +2134,44 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -2151,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0FC3F7-0636-4693-B8C1-41071F85BFB2}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2167,25 +2205,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -2198,10 +2236,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H15" si="0">"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; IF(G3&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -2213,10 +2251,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -2228,10 +2266,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -2243,10 +2281,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -2258,13 +2296,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -2273,13 +2311,13 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8">
         <v>50</v>
@@ -2294,10 +2332,10 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>255</v>
@@ -2312,10 +2350,10 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -2324,13 +2362,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -2339,13 +2377,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -2354,13 +2392,13 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -2372,13 +2410,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -2387,13 +2425,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>100</v>
@@ -2415,7 +2453,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2426,38 +2464,38 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -2466,13 +2504,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G8" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -2481,13 +2519,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -2496,13 +2534,13 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6">
         <v>255</v>
@@ -2514,13 +2552,13 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -2529,13 +2567,13 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -2554,7 +2592,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2565,38 +2603,38 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -2605,13 +2643,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G5" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -2620,13 +2658,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>

--- a/document/テーブル定義.xlsx
+++ b/document/テーブル定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\root\yame\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5581B1-554A-470E-98D2-AFEF9F6D3170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09939F1A-41B7-4FA3-AD1F-062504A45F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="824" firstSheet="1" activeTab="6" xr2:uid="{7691247A-2F67-4A83-8ABC-BEB9A7A24CFC}"/>
+    <workbookView xWindow="1650" yWindow="1290" windowWidth="20025" windowHeight="13110" tabRatio="824" firstSheet="4" activeTab="9" xr2:uid="{7691247A-2F67-4A83-8ABC-BEB9A7A24CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="10" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="122">
   <si>
     <t>製材ID</t>
   </si>
@@ -592,9 +592,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Warehouse</t>
-  </si>
-  <si>
     <t>user_category_name</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -660,6 +657,21 @@
   </si>
   <si>
     <t>raw_wood_size</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Warehouse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倉庫ID</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>warehouse_id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1027,7 +1039,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1045,7 +1057,7 @@
         <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E1" t="str">
         <f>"php artisan make:migration create_" &amp; LOWER(B1) &amp; "_table --create=users"</f>
@@ -1066,10 +1078,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
         <v>111</v>
-      </c>
-      <c r="B2" t="s">
-        <v>112</v>
       </c>
       <c r="E2" t="str">
         <f>"php artisan make:migration create_" &amp; LOWER(B2) &amp; "_table --create=" &amp; B2</f>
@@ -1117,7 +1129,7 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="E4" t="str">
         <f>"php artisan make:migration create_" &amp; LOWER(B4) &amp; "_table --create=" &amp; B4</f>
@@ -1336,10 +1348,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2412BF-F40F-4984-BED3-4FA17FDB973D}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1411,63 +1423,71 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" ref="G5:G8" si="0">"$table-&gt;" &amp; C5 &amp; "(""" &amp; B5 &amp; """" &amp;  IF(D5&lt;&gt;"","," &amp; D5,"") &amp; ")"  &amp; IF(E5&lt;&gt;"","-&gt;default(" &amp; E5 &amp; ")","") &amp; IF(F5&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A5 &amp; """)" &amp; ";"</f>
-        <v>$table-&gt;date("export_date")-&gt;comment("出庫日");</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" si="0"/>
-        <v>$table-&gt;string("reason",255)-&gt;comment("理由");</v>
+        <f t="shared" ref="G6:G9" si="0">"$table-&gt;" &amp; C6 &amp; "(""" &amp; B6 &amp; """" &amp;  IF(D6&lt;&gt;"","," &amp; D6,"") &amp; ")"  &amp; IF(E6&lt;&gt;"","-&gt;default(" &amp; E6 &amp; ")","") &amp; IF(F6&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A6 &amp; """)" &amp; ";"</f>
+        <v>$table-&gt;date("export_date")-&gt;comment("出庫日");</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>255</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>$table-&gt;unsignedInteger("create_user_id")-&gt;comment("登録者");</v>
+        <v>$table-&gt;string("reason",255)-&gt;comment("理由");</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
       <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;unsignedInteger("create_user_id")-&gt;comment("登録者");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v>$table-&gt;unsignedInteger("update_user_id")-&gt;comment("変更者");</v>
       </c>
@@ -1812,7 +1832,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1867,13 +1887,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s">
         <v>108</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>109</v>
-      </c>
-      <c r="C4" t="s">
-        <v>110</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H6" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; IF(F4&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -1882,10 +1902,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1921,12 +1941,12 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1953,7 +1973,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -1968,7 +1988,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -1993,7 +2013,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2060,7 +2080,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I3"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2189,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0FC3F7-0636-4693-B8C1-41071F85BFB2}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2236,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
         <v>53</v>
@@ -2251,7 +2271,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
@@ -2266,7 +2286,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
         <v>53</v>
@@ -2281,7 +2301,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -2450,10 +2470,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{762820DA-F05F-428C-A9F0-7FB19A4112ED}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2513,69 +2533,77 @@
         <v>10</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G8" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
+        <f t="shared" ref="G4:G9" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
         <v>$table-&gt;string("produce_user_name")-&gt;comment("製材所名");</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>$table-&gt;date("import_date")-&gt;comment("入庫日");</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>$table-&gt;string("reason",255)-&gt;comment("理由");</v>
+        <v>$table-&gt;date("import_date")-&gt;comment("入庫日");</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>255</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>$table-&gt;unsignedInteger("create_user_id")-&gt;comment("登録者");</v>
+        <v>$table-&gt;string("reason",255)-&gt;comment("理由");</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
         <v>52</v>
       </c>
       <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;unsignedInteger("create_user_id")-&gt;comment("登録者");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v>$table-&gt;unsignedInteger("update_user_id")-&gt;comment("変更者");</v>
       </c>
@@ -2592,7 +2620,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/document/テーブル定義.xlsx
+++ b/document/テーブル定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\root\yame\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09939F1A-41B7-4FA3-AD1F-062504A45F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB86C4DE-5B61-42DA-9EEC-A8407F6BD271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="1290" windowWidth="20025" windowHeight="13110" tabRatio="824" firstSheet="4" activeTab="9" xr2:uid="{7691247A-2F67-4A83-8ABC-BEB9A7A24CFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="824" firstSheet="8" activeTab="11" xr2:uid="{7691247A-2F67-4A83-8ABC-BEB9A7A24CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="10" r:id="rId1"/>
@@ -231,9 +231,6 @@
     <t>field_name</t>
   </si>
   <si>
-    <t>time_limit</t>
-  </si>
-  <si>
     <t>builder_user_id</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -672,6 +669,10 @@
   </si>
   <si>
     <t>warehouse_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>time_limit</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1054,10 +1055,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E1" t="str">
         <f>"php artisan make:migration create_" &amp; LOWER(B1) &amp; "_table --create=users"</f>
@@ -1078,10 +1079,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
         <v>110</v>
-      </c>
-      <c r="B2" t="s">
-        <v>111</v>
       </c>
       <c r="E2" t="str">
         <f>"php artisan make:migration create_" &amp; LOWER(B2) &amp; "_table --create=" &amp; B2</f>
@@ -1098,10 +1099,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3" si="1">"php artisan make:migration create_" &amp; LOWER(B3) &amp; "_table --create=" &amp; B3</f>
@@ -1126,10 +1127,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E4" t="str">
         <f>"php artisan make:migration create_" &amp; LOWER(B4) &amp; "_table --create=" &amp; B4</f>
@@ -1154,10 +1155,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ref="E5:E12" si="5">"php artisan make:migration create_" &amp; LOWER(B5) &amp; "_table --create=" &amp; B5</f>
@@ -1182,10 +1183,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="5"/>
@@ -1210,10 +1211,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" t="s">
         <v>88</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="5"/>
@@ -1238,10 +1239,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="5"/>
@@ -1254,10 +1255,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="5"/>
@@ -1282,10 +1283,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="5"/>
@@ -1298,10 +1299,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="5"/>
@@ -1326,10 +1327,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="5"/>
@@ -1350,8 +1351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2412BF-F40F-4984-BED3-4FA17FDB973D}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1382,21 +1383,21 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; IF(F3&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -1405,16 +1406,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G4" t="str">
         <f>"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; IF(F4&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -1423,18 +1424,18 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
         <v>120</v>
-      </c>
-      <c r="B5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" t="s">
         <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -1446,7 +1447,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1470,7 +1471,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -1485,7 +1486,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -1541,13 +1542,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -1562,7 +1563,7 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G5" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -1577,7 +1578,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -1595,8 +1596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6367F9-BEE6-4908-BF0F-857525D7CA3C}">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1654,10 +1655,10 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G8" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -1669,7 +1670,7 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1687,7 +1688,7 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -1705,7 +1706,7 @@
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
@@ -1720,7 +1721,7 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -1739,7 +1740,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1777,13 +1778,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -1798,7 +1799,7 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G5" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -1813,7 +1814,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -1859,10 +1860,10 @@
         <v>16</v>
       </c>
       <c r="F1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -1887,13 +1888,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" t="s">
         <v>107</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>108</v>
-      </c>
-      <c r="C4" t="s">
-        <v>109</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H6" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; IF(F4&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -1902,10 +1903,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1973,7 +1974,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -1988,7 +1989,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -2040,13 +2041,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" t="str">
         <f>"$table-&gt;" &amp; C2 &amp; "(""" &amp; B2 &amp; """" &amp;  IF(D2&lt;&gt;"","," &amp; D2,"") &amp; ")"  &amp; IF(E2&lt;&gt;"","-&gt;default(" &amp; E2 &amp; ")","") &amp; IF(F2&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A2 &amp; """)" &amp; ";"</f>
@@ -2055,7 +2056,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -2107,13 +2108,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" t="str">
         <f>"$table-&gt;" &amp; C2 &amp; "(""" &amp; B2 &amp; """" &amp;  IF(D2&lt;&gt;"","," &amp; D2,"") &amp; ")"  &amp; IF(E2&lt;&gt;"","-&gt;default(" &amp; E2 &amp; ")","") &amp; IF(F2&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A2 &amp; """)" &amp; ";"</f>
@@ -2122,7 +2123,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -2243,7 +2244,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -2256,10 +2257,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H15" si="0">"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; IF(G3&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -2271,10 +2272,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -2286,10 +2287,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -2301,7 +2302,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -2316,13 +2317,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -2331,10 +2332,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -2373,7 +2374,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -2382,13 +2383,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
         <v>98</v>
       </c>
-      <c r="B11" t="s">
-        <v>99</v>
-      </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -2397,13 +2398,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -2412,10 +2413,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -2430,13 +2431,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -2445,10 +2446,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -2473,7 +2474,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2504,7 +2505,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -2515,7 +2516,7 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -2539,18 +2540,18 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" t="s">
         <v>120</v>
-      </c>
-      <c r="B5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -2562,7 +2563,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -2586,7 +2587,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -2601,7 +2602,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -2656,13 +2657,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
         <v>61</v>
       </c>
-      <c r="B3" t="s">
-        <v>62</v>
-      </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -2677,7 +2678,7 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G5" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -2692,7 +2693,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>

--- a/document/テーブル定義.xlsx
+++ b/document/テーブル定義.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\root\yame\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB86C4DE-5B61-42DA-9EEC-A8407F6BD271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE16419C-88F4-405B-8727-711710AD6562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="824" firstSheet="8" activeTab="11" xr2:uid="{7691247A-2F67-4A83-8ABC-BEB9A7A24CFC}"/>
+    <workbookView xWindow="600" yWindow="225" windowWidth="20025" windowHeight="13110" tabRatio="824" firstSheet="8" activeTab="11" xr2:uid="{7691247A-2F67-4A83-8ABC-BEB9A7A24CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="10" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="125">
   <si>
     <t>製材ID</t>
   </si>
@@ -225,9 +225,6 @@
     <t>工務店名</t>
   </si>
   <si>
-    <t>期限</t>
-  </si>
-  <si>
     <t>field_name</t>
   </si>
   <si>
@@ -672,7 +669,38 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>time_limit</t>
+    <t>出荷予定日</t>
+    <rPh sb="0" eb="2">
+      <t>シュッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>export_expected_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_exported</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出荷済</t>
+    <rPh sb="0" eb="2">
+      <t>シュッカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1055,10 +1083,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E1" t="str">
         <f>"php artisan make:migration create_" &amp; LOWER(B1) &amp; "_table --create=users"</f>
@@ -1079,10 +1107,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" t="s">
-        <v>110</v>
       </c>
       <c r="E2" t="str">
         <f>"php artisan make:migration create_" &amp; LOWER(B2) &amp; "_table --create=" &amp; B2</f>
@@ -1099,10 +1127,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3" si="1">"php artisan make:migration create_" &amp; LOWER(B3) &amp; "_table --create=" &amp; B3</f>
@@ -1127,10 +1155,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" t="str">
         <f>"php artisan make:migration create_" &amp; LOWER(B4) &amp; "_table --create=" &amp; B4</f>
@@ -1155,10 +1183,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ref="E5:E12" si="5">"php artisan make:migration create_" &amp; LOWER(B5) &amp; "_table --create=" &amp; B5</f>
@@ -1183,10 +1211,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="5"/>
@@ -1211,10 +1239,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
         <v>87</v>
-      </c>
-      <c r="B7" t="s">
-        <v>88</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="5"/>
@@ -1239,10 +1267,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="5"/>
@@ -1255,10 +1283,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="5"/>
@@ -1283,10 +1311,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="5"/>
@@ -1299,10 +1327,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="5"/>
@@ -1327,10 +1355,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="5"/>
@@ -1383,21 +1411,21 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; IF(F3&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -1406,16 +1434,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G4" t="str">
         <f>"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; IF(F4&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -1424,18 +1452,18 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
         <v>119</v>
-      </c>
-      <c r="B5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
         <v>65</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -1447,7 +1475,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1471,7 +1499,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -1486,7 +1514,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -1542,13 +1570,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -1563,7 +1591,7 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G5" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -1578,7 +1606,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -1594,10 +1622,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6367F9-BEE6-4908-BF0F-857525D7CA3C}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1637,7 +1665,7 @@
         <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -1655,13 +1683,13 @@
         <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G8" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
+        <f t="shared" ref="G4:G9" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
         <v>$table-&gt;unsignedInteger("builder_user_id")-&gt;comment("工務店ユーザーID");</v>
       </c>
     </row>
@@ -1670,7 +1698,7 @@
         <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1685,7 +1713,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
         <v>121</v>
@@ -1695,35 +1723,50 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>$table-&gt;date("time_limit")-&gt;comment("期限");</v>
+        <v>$table-&gt;date("export_expected_date")-&gt;comment("出荷予定日");</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>123</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>$table-&gt;unsignedInteger("create_user_id")-&gt;comment("登録者");</v>
+        <v>$table-&gt;boolean("is_exported")-&gt;comment("出荷済");</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;unsignedInteger("create_user_id")-&gt;comment("登録者");</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>29</v>
       </c>
-      <c r="C8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" t="str">
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" t="str">
         <f t="shared" si="0"/>
         <v>$table-&gt;unsignedInteger("update_user_id")-&gt;comment("変更者");</v>
       </c>
@@ -1778,13 +1821,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -1799,7 +1842,7 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G5" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -1814,7 +1857,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
@@ -1860,10 +1903,10 @@
         <v>16</v>
       </c>
       <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" t="s">
         <v>99</v>
-      </c>
-      <c r="G1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -1888,13 +1931,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" t="s">
         <v>106</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>107</v>
-      </c>
-      <c r="C4" t="s">
-        <v>108</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H6" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; IF(F4&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -1903,10 +1946,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1974,7 +2017,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -1989,7 +2032,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -2041,13 +2084,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" t="str">
         <f>"$table-&gt;" &amp; C2 &amp; "(""" &amp; B2 &amp; """" &amp;  IF(D2&lt;&gt;"","," &amp; D2,"") &amp; ")"  &amp; IF(E2&lt;&gt;"","-&gt;default(" &amp; E2 &amp; ")","") &amp; IF(F2&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A2 &amp; """)" &amp; ";"</f>
@@ -2056,7 +2099,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -2108,13 +2151,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" t="str">
         <f>"$table-&gt;" &amp; C2 &amp; "(""" &amp; B2 &amp; """" &amp;  IF(D2&lt;&gt;"","," &amp; D2,"") &amp; ")"  &amp; IF(E2&lt;&gt;"","-&gt;default(" &amp; E2 &amp; ")","") &amp; IF(F2&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A2 &amp; """)" &amp; ";"</f>
@@ -2123,7 +2166,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
@@ -2244,7 +2287,7 @@
         <v>17</v>
       </c>
       <c r="G1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
@@ -2257,10 +2300,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H15" si="0">"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; IF(G3&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -2272,10 +2315,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
@@ -2287,10 +2330,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -2302,7 +2345,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
         <v>10</v>
@@ -2317,13 +2360,13 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -2332,10 +2375,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
@@ -2374,7 +2417,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -2383,13 +2426,13 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
         <v>97</v>
       </c>
-      <c r="B11" t="s">
-        <v>98</v>
-      </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -2398,13 +2441,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -2413,10 +2456,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>10</v>
@@ -2431,13 +2474,13 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
@@ -2446,10 +2489,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
@@ -2505,7 +2548,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -2516,7 +2559,7 @@
         <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -2540,18 +2583,18 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" t="s">
         <v>119</v>
-      </c>
-      <c r="B5" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" t="s">
         <v>31</v>
@@ -2563,7 +2606,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -2587,7 +2630,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
@@ -2602,7 +2645,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
@@ -2657,13 +2700,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
         <v>60</v>
       </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G3" t="str">
         <f>"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
@@ -2678,7 +2721,7 @@
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G5" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
@@ -2693,7 +2736,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>

--- a/document/テーブル定義.xlsx
+++ b/document/テーブル定義.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\root\yame\document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\root\yame\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE16419C-88F4-405B-8727-711710AD6562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEC3DF1-40D4-4E48-9B93-A96E7D8C3486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="225" windowWidth="20025" windowHeight="13110" tabRatio="824" firstSheet="8" activeTab="11" xr2:uid="{7691247A-2F67-4A83-8ABC-BEB9A7A24CFC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="824" firstSheet="5" activeTab="6" xr2:uid="{7691247A-2F67-4A83-8ABC-BEB9A7A24CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="10" r:id="rId1"/>
@@ -1624,8 +1624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6367F9-BEE6-4908-BF0F-857525D7CA3C}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2253,12 +2253,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0FC3F7-0636-4693-B8C1-41071F85BFB2}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="2" max="2" width="16.125" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>

--- a/document/テーブル定義.xlsx
+++ b/document/テーブル定義.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\root\yame\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEC3DF1-40D4-4E48-9B93-A96E7D8C3486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF7B114-07FA-40B8-AAEF-69B074A0AF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="824" firstSheet="5" activeTab="6" xr2:uid="{7691247A-2F67-4A83-8ABC-BEB9A7A24CFC}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="133">
   <si>
     <t>製材ID</t>
   </si>
@@ -702,6 +702,30 @@
       <t>スミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>defective_quantity</t>
+  </si>
+  <si>
+    <t>manufacturing_quantity</t>
+  </si>
+  <si>
+    <t>raw_wood_arrival_quantity</t>
+  </si>
+  <si>
+    <t>raw_wood_arrangement_quantity</t>
+  </si>
+  <si>
+    <t>不良品</t>
+  </si>
+  <si>
+    <t>乾燥中・製材中</t>
+  </si>
+  <si>
+    <t>原木入荷</t>
+  </si>
+  <si>
+    <t>原木手配</t>
   </si>
 </sst>
 </file>
@@ -2251,10 +2275,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0FC3F7-0636-4693-B8C1-41071F85BFB2}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2307,7 +2331,7 @@
         <v>51</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H15" si="0">"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; IF(G3&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
+        <f t="shared" ref="H3:H19" si="0">"$table-&gt;" &amp; C3 &amp; "(""" &amp; B3 &amp; """" &amp;  IF(D3&lt;&gt;"","," &amp; D3,"") &amp; ")"  &amp; IF(E3&lt;&gt;"","-&gt;default(" &amp; E3 &amp; ")","") &amp; IF(G3&lt;&gt;"","-&gt;nullable()","") &amp; "-&gt;comment(""" &amp; A3 &amp; """)" &amp; ";"</f>
         <v>$table-&gt;unsignedInteger("length")-&gt;comment("長さ");</v>
       </c>
     </row>
@@ -2504,6 +2528,66 @@
       <c r="H15" t="str">
         <f t="shared" si="0"/>
         <v>$table-&gt;string("wood_species_name",100)-&gt;comment("樹種名");</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;unsignedInteger("defective_quantity")-&gt;comment("不良品");</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;unsignedInteger("manufacturing_quantity")-&gt;comment("乾燥中・製材中");</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;unsignedInteger("raw_wood_arrival_quantity")-&gt;comment("原木入荷");</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>132</v>
+      </c>
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;unsignedInteger("raw_wood_arrangement_quantity")-&gt;comment("原木手配");</v>
       </c>
     </row>
   </sheetData>

--- a/document/テーブル定義.xlsx
+++ b/document/テーブル定義.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\root\yame\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF7B114-07FA-40B8-AAEF-69B074A0AF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178C7781-32D0-4126-88BD-018D91F0B628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="824" firstSheet="5" activeTab="6" xr2:uid="{7691247A-2F67-4A83-8ABC-BEB9A7A24CFC}"/>
+    <workbookView xWindow="19350" yWindow="1500" windowWidth="19005" windowHeight="13110" tabRatio="824" firstSheet="9" activeTab="11" xr2:uid="{7691247A-2F67-4A83-8ABC-BEB9A7A24CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="10" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="135">
   <si>
     <t>製材ID</t>
   </si>
@@ -726,6 +726,23 @@
   </si>
   <si>
     <t>原木手配</t>
+  </si>
+  <si>
+    <t>出荷確定日</t>
+    <rPh sb="0" eb="2">
+      <t>シュッカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクテイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>export_fix_date</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1646,10 +1663,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B6367F9-BEE6-4908-BF0F-857525D7CA3C}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1713,7 +1730,7 @@
         <v>51</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G9" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
+        <f t="shared" ref="G4:G10" si="0">"$table-&gt;" &amp; C4 &amp; "(""" &amp; B4 &amp; """" &amp;  IF(D4&lt;&gt;"","," &amp; D4,"") &amp; ")"  &amp; IF(E4&lt;&gt;"","-&gt;default(" &amp; E4 &amp; ")","") &amp; "-&gt;comment(""" &amp; A4 &amp; """)" &amp; ";"</f>
         <v>$table-&gt;unsignedInteger("builder_user_id")-&gt;comment("工務店ユーザーID");</v>
       </c>
     </row>
@@ -1752,45 +1769,60 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>$table-&gt;boolean("is_exported")-&gt;comment("出荷済");</v>
+        <f>"$table-&gt;" &amp; C7 &amp; "(""" &amp; B7 &amp; """" &amp;  IF(D7&lt;&gt;"","," &amp; D7,"") &amp; ")"  &amp; IF(E7&lt;&gt;"","-&gt;default(" &amp; E7 &amp; ")","") &amp; "-&gt;comment(""" &amp; A7 &amp; """)" &amp; ";"</f>
+        <v>$table-&gt;date("export_fix_date")-&gt;comment("出荷確定日");</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>$table-&gt;unsignedInteger("create_user_id")-&gt;comment("登録者");</v>
+        <v>$table-&gt;boolean("is_exported")-&gt;comment("出荷済");</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
         <v>51</v>
       </c>
       <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>$table-&gt;unsignedInteger("create_user_id")-&gt;comment("登録者");</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" t="str">
         <f t="shared" si="0"/>
         <v>$table-&gt;unsignedInteger("update_user_id")-&gt;comment("変更者");</v>
       </c>
@@ -2277,8 +2309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0FC3F7-0636-4693-B8C1-41071F85BFB2}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
